--- a/_site/Data/SpecialNeeds.xlsx
+++ b/_site/Data/SpecialNeeds.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25019"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmyescanlar/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BFFBD00-1F01-FA48-9346-D4C1B2863CAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C710899-8474-834B-96C7-95C4224CD3B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15100" yWindow="1000" windowWidth="13140" windowHeight="15760" xr2:uid="{588804FF-0D6D-924D-A5B7-C78279FF720E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,24 +34,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
   <si>
     <t>Question</t>
   </si>
   <si>
+    <t>Answers</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Source Link</t>
+  </si>
+  <si>
+    <t>Dates Used</t>
+  </si>
+  <si>
     <t>Does your child have any of the following disabilities? Select all that apply</t>
-  </si>
-  <si>
-    <t>Answers</t>
-  </si>
-  <si>
-    <t>Source</t>
-  </si>
-  <si>
-    <t>Source Link</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Occurrence </t>
   </si>
   <si>
     <t xml:space="preserve">▢ Blind or serious difficulty seeing even when wearing glasses  
@@ -60,6 +60,9 @@
 ▢ Other disabilities 
 ▢ No disabilities 
 ▢ Do not wish to disclose </t>
+  </si>
+  <si>
+    <t>11/10/2021-11/16/2021</t>
   </si>
   <si>
     <r>
@@ -98,78 +101,6 @@
 ▢ Home nursing care (e.g., suctioning, changing feeding tubes)  
 ▢ Nutritional / feeding advice 
 ▢ Other, please specify:  </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">■ Yes, received </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>fully in-person</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-■ Yes, received </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>fully remotely</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-■ Yes, received </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>both in-person and remotely</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-■ Sometimes/received some services/care
-■ No, did not receive at all</t>
-    </r>
   </si>
   <si>
     <r>
@@ -208,6 +139,78 @@
     </r>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">■ Yes, received </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fully in-person</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+■ Yes, received </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fully remotely</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+■ Yes, received </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>both in-person and remotely</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+■ Sometimes/received some services/care
+■ No, did not receive at all</t>
+    </r>
+  </si>
+  <si>
     <t>In the past year, did your child need any of the following assistive supports? Please select the assistive supports needed.</t>
   </si>
   <si>
@@ -276,7 +279,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -319,7 +322,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -329,6 +332,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -644,122 +650,130 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8A2514B-6C4F-C843-B00D-26EC1AAB1E61}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="31.6640625" customWidth="1"/>
+    <col min="2" max="2" width="31.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="156.75">
+      <c r="A2" s="1" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="166" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="204" x14ac:dyDescent="0.2">
+      <c r="E2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" ht="189">
       <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="272" x14ac:dyDescent="0.2">
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" ht="252">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="238" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" ht="220.5">
       <c r="A5" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="238" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" ht="220.5">
       <c r="A6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="E6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" ht="78.75">
       <c r="A7" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" ht="47.25">
       <c r="A8" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" ht="47.25">
       <c r="A9" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9">
-        <v>83</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_site/Data/SpecialNeeds.xlsx
+++ b/_site/Data/SpecialNeeds.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgpqX5VvcDf6EjF9G68lE7AELG7sw=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mhRix29rFLxZwvso0cFQM0tAj/z4A=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
   <si>
     <t>Question</t>
   </si>
@@ -84,6 +84,13 @@
 • Home nursing care (e.g., suctioning, changing feeding tubes)  
 • Nutritional / feeding advice 
 • Other, please specify:  </t>
+  </si>
+  <si>
+    <t>Adapted from Unmet Health Care Service Needs of Children with Disabilities
+Seok Hong Tan</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/action/doSearch?target=default&amp;ContribAuthorStored=Tan%2C+Seok+Hong</t>
   </si>
   <si>
     <r>
@@ -229,6 +236,19 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://journals.sagepub.com/action/doSearch?target=default&amp;ContribAuthorStored=Tan%2C+Seok+Hong</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>g</t>
+    </r>
+  </si>
+  <si>
     <t>How satisfied were you with the services and supports provided?</t>
   </si>
   <si>
@@ -237,6 +257,9 @@
 • Neutral 
 • Satisfied 
 • Very satisfied  </t>
+  </si>
+  <si>
+    <t>Developed by RAPID team</t>
   </si>
   <si>
     <t>Did the services/supports meet your child(ren)'s needs?</t>
@@ -257,7 +280,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
@@ -279,6 +302,19 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -294,7 +330,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -312,6 +348,21 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -574,8 +625,12 @@
       <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="C3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
@@ -583,13 +638,17 @@
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="D4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
       <c r="E4" s="2" t="s">
         <v>7</v>
       </c>
@@ -597,13 +656,17 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="C5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="E5" s="2" t="s">
         <v>7</v>
       </c>
@@ -611,13 +674,17 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="C6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="E6" s="2" t="s">
         <v>7</v>
       </c>
@@ -625,12 +692,14 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="D7" s="1"/>
       <c r="E7" s="2" t="s">
         <v>7</v>
@@ -639,12 +708,14 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="D8" s="1"/>
       <c r="E8" s="2" t="s">
         <v>7</v>
@@ -653,12 +724,14 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="2" t="s">
         <v>7</v>
@@ -7603,9 +7676,15 @@
       <c r="E1000" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="D3"/>
+    <hyperlink r:id="rId2" ref="D4"/>
+    <hyperlink r:id="rId3" ref="D5"/>
+    <hyperlink r:id="rId4" ref="D6"/>
+  </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
--- a/_site/Data/SpecialNeeds.xlsx
+++ b/_site/Data/SpecialNeeds.xlsx
@@ -273,7 +273,7 @@
     <t>What additional services and/or supports would meet your child(ren)'s needs?</t>
   </si>
   <si>
-    <t>Open ended</t>
+    <t>Open ended response</t>
   </si>
 </sst>
 </file>
@@ -726,7 +726,7 @@
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="10" t="s">
